--- a/SimpCity US24 Test Document (3 Pass 1 Nil).xlsx
+++ b/SimpCity US24 Test Document (3 Pass 1 Nil).xlsx
@@ -5,26 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D725A5-3C7D-4CA0-ADE1-58661FAE3A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA37652-FCD2-4619-9530-55E5E5E87161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US24 Sprint 5 " sheetId="25" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1367,6 +1364,144 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1385,145 +1520,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1979,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C70621A-3FD6-46CB-A53F-48C5248D7A35}">
   <dimension ref="A1:BA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,10 +1997,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="141"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="40"/>
       <c r="E1" s="38"/>
       <c r="F1" s="42"/>
@@ -2016,24 +2013,24 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="143"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="142" t="s">
+      <c r="E2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="143"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="143" t="s">
+      <c r="H2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="142" t="s">
+      <c r="I2" s="101"/>
+      <c r="J2" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="147"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2146,20 +2143,20 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="148"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="148"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="148" t="s">
+      <c r="H7" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="148"/>
+      <c r="I7" s="113"/>
       <c r="J7"/>
       <c r="L7" s="4"/>
     </row>
@@ -2198,7 +2195,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="66" t="s">
@@ -2293,80 +2290,80 @@
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="132"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="128"/>
       <c r="I14" s="92"/>
       <c r="J14" s="92"/>
       <c r="K14" s="84"/>
     </row>
     <row r="15" spans="1:12" ht="397.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="128"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="107" t="s">
+      <c r="A15" s="125"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="145" t="s">
+      <c r="E15" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="113" t="s">
+      <c r="F15" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="133" t="s">
+      <c r="G15" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="117" t="s">
+      <c r="H15" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117" t="s">
+      <c r="I15" s="114"/>
+      <c r="J15" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="119"/>
+      <c r="K15" s="116"/>
     </row>
     <row r="16" spans="1:12" ht="397.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="129"/>
-      <c r="B16" s="130"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="104"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="120"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="117"/>
     </row>
     <row r="17" spans="1:53" ht="277.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121">
+      <c r="A17" s="118">
         <v>2</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="124" t="s">
+      <c r="E17" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="114"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="126" t="s">
+      <c r="F17" s="140"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="123" t="s">
         <v>40</v>
       </c>
       <c r="I17" s="78"/>
@@ -2376,14 +2373,14 @@
       <c r="K17" s="80"/>
     </row>
     <row r="18" spans="1:53" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="122"/>
-      <c r="B18" s="123"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="104"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="127"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="124"/>
       <c r="I18" s="85"/>
       <c r="J18" s="86" t="s">
         <v>40</v>
@@ -2391,70 +2388,70 @@
       <c r="K18" s="87"/>
     </row>
     <row r="19" spans="1:53" ht="345" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="138">
+      <c r="A19" s="134">
         <v>3</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="109" t="s">
+      <c r="E19" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="111" t="s">
+      <c r="F19" s="140"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="149" t="s">
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="98" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:53" ht="373.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="139"/>
-      <c r="B20" s="130"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="104"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="149"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="98"/>
     </row>
     <row r="21" spans="1:53" s="88" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="99">
+      <c r="A21" s="145">
         <v>4</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="105" t="s">
+      <c r="E21" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="115" t="s">
+      <c r="F21" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="117" t="s">
+      <c r="G21" s="132"/>
+      <c r="H21" s="114" t="s">
         <v>42</v>
       </c>
       <c r="I21" s="82"/>
-      <c r="J21" s="140" t="s">
+      <c r="J21" s="97" t="s">
         <v>40</v>
       </c>
       <c r="K21" s="83"/>
@@ -2487,16 +2484,16 @@
       <c r="AL21" s="94"/>
     </row>
     <row r="22" spans="1:53" s="89" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="98"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="104"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="118"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="82"/>
-      <c r="J22" s="140"/>
+      <c r="J22" s="97"/>
       <c r="K22" s="83"/>
       <c r="L22" s="93"/>
       <c r="M22" s="93"/>
@@ -2776,6 +2773,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
@@ -2792,34 +2817,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21 H15 J15 H17 H19 J17:J19 J21" xr:uid="{540B8536-C5CE-43BB-A81B-D371C5AAD74E}">
